--- a/biology/Botanique/Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte/Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte.xlsx
+++ b/biology/Botanique/Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte/Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Confrérie de la Saint-Vincent et disciples de la Chanteflûte est une confrérie bachique de Bourgogne basée à Mercurey (Saône-et-Loire). Elle a pour but de faire connaitre l'AOC Mercurey. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La confrérie Saint-Vincent fut créée par Hughes de Suremain, Auguste Raquilet, Jacques Jeannin-Naltet et Louis Menand le 29 décembre 1949, après la fusion des différentes sociétés de secours mutuel : Confrérie Saint Martin et Confrérie Saint Charles[1]. Fin 1971, la confrérie Saint-Vincent souhaitant s'ouvrir à toute la population de la commune et ne pas rester simplement un syndicat de vignerons, élargit son activité et prend le nom de: Confrérie Saint-Vincent et Disciples de la Chanteflûte de Mercurey[1]. L'emblème de la Confrérie est le blason du village de Mercurey " De gueule, au caducée de Mercure en argent chaussé d'or, chargé de deux grappes au naturel à dextre et à senestre " Le collier est celui de la Confrérie [2]. En 2018, le président est Yves De Suremain.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La confrérie Saint-Vincent fut créée par Hughes de Suremain, Auguste Raquilet, Jacques Jeannin-Naltet et Louis Menand le 29 décembre 1949, après la fusion des différentes sociétés de secours mutuel : Confrérie Saint Martin et Confrérie Saint Charles. Fin 1971, la confrérie Saint-Vincent souhaitant s'ouvrir à toute la population de la commune et ne pas rester simplement un syndicat de vignerons, élargit son activité et prend le nom de: Confrérie Saint-Vincent et Disciples de la Chanteflûte de Mercurey. L'emblème de la Confrérie est le blason du village de Mercurey " De gueule, au caducée de Mercure en argent chaussé d'or, chargé de deux grappes au naturel à dextre et à senestre " Le collier est celui de la Confrérie . En 2018, le président est Yves De Suremain.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Les chapitres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La confrérie tient  trois chapitres par an (à la Saint-Vincent fin janvier, au solstice d'été fin juin et à la Paulée de la Côte-Chalonnaise fin octobre), où sont intronisés certains amateurs méritants du mercurey[3]. Le siège de la confrérie est sis au Château de Garnerot.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La confrérie tient  trois chapitres par an (à la Saint-Vincent fin janvier, au solstice d'été fin juin et à la Paulée de la Côte-Chalonnaise fin octobre), où sont intronisés certains amateurs méritants du mercurey. Le siège de la confrérie est sis au Château de Garnerot.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Le chanteflûtage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette confrérie bachique organise deux fois l'an un Chanteflûtage, des vins de la côte-chalonaise passant un concours de dégustation[4],[N 1] qui ne sélectionne que les meilleurs vins méritant cette mention[5]. Aux vins sélectionnés est accordée une étiquette numérotée portant le nom du producteur, le millésime et la mention Chantefluté[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette confrérie bachique organise deux fois l'an un Chanteflûtage, des vins de la côte-chalonaise passant un concours de dégustation,[N 1] qui ne sélectionne que les meilleurs vins méritant cette mention. Aux vins sélectionnés est accordée une étiquette numérotée portant le nom du producteur, le millésime et la mention Chantefluté.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Membres actuels
-Les membres en 2009 sont : Manuel Bautista, Luc Buliard, Agnès Dewé, Yves de Suremain, Rémy Duchet, Thierry Duréault, Stéphane Gadan, Patrick Guillot, Thierry Jeannin-Naltet, Patrice Mathias, George-Claude Menand, Philippe Menand, Guy Narjoux, François Raquillet, Olivier Raquillet… 
-Anciens membres
-Hughes de Suremain, Auguste Raquilet, Jacques Jeannin-Naltet, Louis Menand, Alain Bouillien, Alain Size, Michel Raquillet, Jean Raquillet, Paul Jeannin-Naltet…
+          <t>Membres actuels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres en 2009 sont : Manuel Bautista, Luc Buliard, Agnès Dewé, Yves de Suremain, Rémy Duchet, Thierry Duréault, Stéphane Gadan, Patrick Guillot, Thierry Jeannin-Naltet, Patrice Mathias, George-Claude Menand, Philippe Menand, Guy Narjoux, François Raquillet, Olivier Raquillet… 
 </t>
         </is>
       </c>
@@ -620,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,10 +656,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Membres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anciens membres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hughes de Suremain, Auguste Raquilet, Jacques Jeannin-Naltet, Louis Menand, Alain Bouillien, Alain Size, Michel Raquillet, Jean Raquillet, Paul Jeannin-Naltet…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Citation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les paroles prononcées par le grand flûteux sont : 
@@ -647,31 +707,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Confrérie_de_la_Saint-Vincent_et_disciples_de_la_Chanteflûte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Confr%C3%A9rie_de_la_Saint-Vincent_et_disciples_de_la_Chantefl%C3%BBte</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources, bibliographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Hubert Duyker : Grands vins de Bourgogne, édition : Fernand Nathan, Paris, 1980, 200 pages,  (ISBN 2-09-284 562-4)
 Paul Jeannin-Naltet : "Mercurey, Histoire, Contes et Légendes : Confrérie Saint Vincent et disciples de la Chanteflute, Mercurey 1985, 160 pages.</t>
